--- a/Formatted Recipes.xlsx
+++ b/Formatted Recipes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haneen/Documents/School/Undergrad/ece_cs/cs411/Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haneen/Documents/School/Undergrad/ece_cs/cs411/Project/PantryTM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE1EAFE0-8E8F-2A4B-8900-66ACB9928949}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A8F172-DA22-9043-839F-AD1797409C72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19340" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="195">
   <si>
     <t>Timestamp</t>
   </si>
@@ -342,12 +342,6 @@
     <t>Instructions</t>
   </si>
   <si>
-    <t>Prep Time</t>
-  </si>
-  <si>
-    <t>Cook Time</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -357,9 +351,6 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>Measurement Type</t>
-  </si>
-  <si>
     <t>cup</t>
   </si>
   <si>
@@ -664,6 +655,12 @@
   </si>
   <si>
     <t>Servings</t>
+  </si>
+  <si>
+    <t>PrepTime</t>
+  </si>
+  <si>
+    <t>CookTime</t>
   </si>
 </sst>
 </file>
@@ -673,7 +670,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -687,12 +684,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -737,7 +728,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -750,15 +741,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -979,9 +969,9 @@
   </sheetPr>
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M2" sqref="M2:M16"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1563,8 +1553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{058C88DC-DF2F-D048-9BC9-5A35CF1F52E3}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1575,22 +1565,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>195</v>
+      <c r="D1" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14" x14ac:dyDescent="0.15">
@@ -1904,8 +1894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604D75AF-6910-C04A-831A-DED0FB0E43A4}">
   <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1917,16 +1907,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>92</v>
-      </c>
       <c r="D1" s="8" t="s">
-        <v>93</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -1934,13 +1924,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C2">
         <v>1.5</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E2" s="7"/>
     </row>
@@ -1949,13 +1939,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C3">
         <v>0.75</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E3" s="7"/>
     </row>
@@ -1964,13 +1954,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C4">
         <v>0.75</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E4" s="7"/>
     </row>
@@ -1979,13 +1969,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C5">
         <v>0.75</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E5" s="7"/>
     </row>
@@ -1994,13 +1984,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E6" s="7"/>
     </row>
@@ -2009,13 +1999,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C7">
         <v>0.25</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E7" s="7"/>
     </row>
@@ -2024,13 +2014,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E8" s="7"/>
     </row>
@@ -2039,13 +2029,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E9" s="7"/>
     </row>
@@ -2054,13 +2044,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E10" s="7"/>
     </row>
@@ -2069,13 +2059,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C11">
         <v>6</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E11" s="7"/>
     </row>
@@ -2084,13 +2074,13 @@
         <v>2</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E12" s="5"/>
     </row>
@@ -2099,13 +2089,13 @@
         <v>2</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E13" s="7"/>
     </row>
@@ -2114,13 +2104,13 @@
         <v>2</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C14">
         <v>0.25</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E14" s="7"/>
     </row>
@@ -2129,13 +2119,13 @@
         <v>2</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E15" s="7"/>
     </row>
@@ -2144,13 +2134,13 @@
         <v>2</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E16" s="7"/>
     </row>
@@ -2159,13 +2149,13 @@
         <v>2</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E17" s="5"/>
     </row>
@@ -2174,13 +2164,13 @@
         <v>2</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E18" s="7"/>
     </row>
@@ -2189,7 +2179,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -2200,13 +2190,13 @@
         <v>3</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C20" s="8">
         <v>2</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
@@ -2214,13 +2204,13 @@
         <v>3</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C21" s="8">
         <v>1.5</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
@@ -2228,7 +2218,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -2238,7 +2228,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -2248,7 +2238,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -2258,7 +2248,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -2268,13 +2258,13 @@
         <v>4</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C26" s="8">
         <v>0.5</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
@@ -2282,13 +2272,13 @@
         <v>4</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
@@ -2296,13 +2286,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
@@ -2310,13 +2300,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C29">
         <v>0.5</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
@@ -2324,13 +2314,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
@@ -2338,13 +2328,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E31" s="5"/>
     </row>
@@ -2353,13 +2343,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C32">
         <v>1.5</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
@@ -2367,13 +2357,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
@@ -2381,13 +2371,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C34">
         <v>1.5</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H34" s="6"/>
     </row>
@@ -2396,7 +2386,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -2406,7 +2396,7 @@
         <v>5</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -2416,7 +2406,7 @@
         <v>5</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
@@ -2426,7 +2416,7 @@
         <v>5</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -2436,7 +2426,7 @@
         <v>5</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -2446,7 +2436,7 @@
         <v>5</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
@@ -2456,7 +2446,7 @@
         <v>5</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
@@ -2464,13 +2454,13 @@
         <v>6</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C42">
         <v>4</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
@@ -2478,13 +2468,13 @@
         <v>6</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C43">
         <v>30</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
@@ -2492,13 +2482,13 @@
         <v>6</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C44">
         <v>5</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
@@ -2506,13 +2496,13 @@
         <v>6</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C45">
         <v>2</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
@@ -2520,13 +2510,13 @@
         <v>6</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C46">
         <v>7</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
@@ -2534,13 +2524,13 @@
         <v>7</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C47">
         <v>6</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
@@ -2548,13 +2538,13 @@
         <v>7</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C48">
         <v>0.75</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
@@ -2562,13 +2552,13 @@
         <v>7</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C49">
         <v>3</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E49" s="7"/>
     </row>
@@ -2577,13 +2567,13 @@
         <v>7</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C50">
         <v>3</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
@@ -2591,13 +2581,13 @@
         <v>7</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C51">
         <v>0.75</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
@@ -2605,13 +2595,13 @@
         <v>7</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
@@ -2619,13 +2609,13 @@
         <v>7</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
@@ -2633,13 +2623,13 @@
         <v>8</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
@@ -2647,13 +2637,13 @@
         <v>8</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C55">
         <v>0.5</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
@@ -2661,13 +2651,13 @@
         <v>8</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
@@ -2675,13 +2665,13 @@
         <v>8</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
@@ -2689,13 +2679,13 @@
         <v>8</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C58">
         <v>3</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
@@ -2703,13 +2693,13 @@
         <v>8</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C59">
         <v>14</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
@@ -2717,13 +2707,13 @@
         <v>8</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C60">
         <v>1.5</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
@@ -2731,13 +2721,13 @@
         <v>8</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C61" s="8">
         <v>0.25</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
@@ -2745,13 +2735,13 @@
         <v>8</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C62" s="8">
         <v>2</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
@@ -2759,13 +2749,13 @@
         <v>8</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C63" s="8">
         <v>1</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
@@ -2773,13 +2763,13 @@
         <v>8</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C64" s="8">
         <v>2</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E64" s="5"/>
     </row>
@@ -2788,13 +2778,13 @@
         <v>8</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C65" s="8">
         <v>2</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.15">
@@ -2802,13 +2792,13 @@
         <v>8</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C66" s="8">
         <v>1</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.15">
@@ -2816,13 +2806,13 @@
         <v>9</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C67" s="8">
         <v>1</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
@@ -2830,13 +2820,13 @@
         <v>9</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C68" s="8">
         <v>0.5</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
@@ -2844,13 +2834,13 @@
         <v>9</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C69" s="8">
         <v>1</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.15">
@@ -2858,13 +2848,13 @@
         <v>9</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C70" s="8">
         <v>1</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.15">
@@ -2872,13 +2862,13 @@
         <v>9</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C71" s="8">
         <v>2</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.15">
@@ -2886,13 +2876,13 @@
         <v>9</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C72" s="8">
         <v>3</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E72" s="7"/>
     </row>
@@ -2901,13 +2891,13 @@
         <v>10</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C73" s="8">
         <v>1</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
@@ -2915,13 +2905,13 @@
         <v>10</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C74" s="8">
         <v>0.5</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.15">
@@ -2929,13 +2919,13 @@
         <v>10</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C75" s="8">
         <v>0.5</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
@@ -2943,13 +2933,13 @@
         <v>10</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C76" s="8">
         <v>1.5</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
@@ -2957,13 +2947,13 @@
         <v>10</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C77" s="8">
         <v>2.5</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.15">
@@ -2971,13 +2961,13 @@
         <v>10</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C78" s="8">
         <v>4</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.15">
@@ -2985,13 +2975,13 @@
         <v>10</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C79" s="8">
         <v>2</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.15">
@@ -2999,13 +2989,13 @@
         <v>10</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C80" s="8">
         <v>0.5</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.15">
@@ -3013,13 +3003,13 @@
         <v>10</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C81" s="8">
         <v>0.5</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.15">
@@ -3027,13 +3017,13 @@
         <v>10</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C82" s="8">
         <v>0.25</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.15">
@@ -3041,13 +3031,13 @@
         <v>11</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C83" s="8">
         <v>2</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.15">
@@ -3055,13 +3045,13 @@
         <v>11</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C84" s="8">
         <v>2</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E84" s="5"/>
     </row>
@@ -3070,13 +3060,13 @@
         <v>11</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C85" s="8">
         <v>2</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E85" s="5"/>
     </row>
@@ -3085,13 +3075,13 @@
         <v>12</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C86">
         <v>3</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.15">
@@ -3099,14 +3089,14 @@
         <v>12</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C87" s="10">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.15">
@@ -3114,14 +3104,14 @@
         <v>12</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C88" s="10">
         <f t="shared" ref="C88:C89" si="0">1/3</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.15">
@@ -3129,14 +3119,14 @@
         <v>12</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C89" s="10">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.15">
@@ -3144,13 +3134,13 @@
         <v>12</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C90">
         <v>0.25</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.15">
@@ -3158,13 +3148,13 @@
         <v>12</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C91">
         <v>1</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.15">
@@ -3172,13 +3162,13 @@
         <v>12</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C92">
         <v>1</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.15">
@@ -3186,13 +3176,13 @@
         <v>13</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C93">
         <v>0.25</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -3205,17 +3195,17 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -3239,7 +3229,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -3247,7 +3237,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -3263,7 +3253,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -3271,7 +3261,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -3279,7 +3269,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -3295,7 +3285,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -3303,7 +3293,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -3311,7 +3301,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C13" s="8"/>
     </row>
@@ -3320,7 +3310,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -3328,7 +3318,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
@@ -3336,7 +3326,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E16" s="5"/>
     </row>
@@ -3345,7 +3335,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E17" s="5"/>
     </row>
@@ -3354,7 +3344,7 @@
         <v>8</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E18" s="5"/>
     </row>
@@ -3363,7 +3353,7 @@
         <v>8</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E19" s="5"/>
     </row>
@@ -3372,7 +3362,7 @@
         <v>9</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E20" s="5"/>
     </row>
@@ -3381,7 +3371,7 @@
         <v>9</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E21" s="5"/>
     </row>
@@ -3390,7 +3380,7 @@
         <v>9</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E22" s="5"/>
     </row>
@@ -3399,7 +3389,7 @@
         <v>10</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E23" s="5"/>
     </row>
@@ -3408,7 +3398,7 @@
         <v>10</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E24" s="5"/>
     </row>
@@ -3417,7 +3407,7 @@
         <v>10</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E25" s="5"/>
     </row>
@@ -3426,7 +3416,7 @@
         <v>11</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E26" s="5"/>
     </row>
@@ -3435,7 +3425,7 @@
         <v>11</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E27" s="5"/>
     </row>
@@ -3444,7 +3434,7 @@
         <v>11</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
@@ -3452,7 +3442,7 @@
         <v>12</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
@@ -3460,7 +3450,7 @@
         <v>12</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
@@ -3480,18 +3470,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57151F82-4721-C947-9D05-F632358CBC58}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -3499,7 +3489,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E2" s="5"/>
     </row>
@@ -3517,7 +3507,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="15"/>
@@ -3528,7 +3518,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
@@ -3547,7 +3537,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="15"/>
@@ -3569,7 +3559,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="15"/>
@@ -3580,7 +3570,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="15"/>
@@ -3602,7 +3592,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="15"/>
@@ -3613,7 +3603,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="15"/>
@@ -3646,7 +3636,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E16" s="14"/>
       <c r="F16" s="15"/>
@@ -3657,7 +3647,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
@@ -3665,7 +3655,7 @@
         <v>7</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
@@ -3681,7 +3671,7 @@
         <v>9</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
@@ -3689,7 +3679,7 @@
         <v>9</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
@@ -3697,7 +3687,7 @@
         <v>10</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
@@ -3713,7 +3703,7 @@
         <v>10</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
@@ -3721,7 +3711,7 @@
         <v>10</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
@@ -3737,7 +3727,7 @@
         <v>11</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
@@ -3745,7 +3735,7 @@
         <v>11</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
@@ -3753,7 +3743,7 @@
         <v>11</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
@@ -3769,7 +3759,7 @@
         <v>12</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
@@ -3777,7 +3767,7 @@
         <v>12</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
@@ -3785,7 +3775,7 @@
         <v>12</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/Formatted Recipes.xlsx
+++ b/Formatted Recipes.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haneen/Documents/School/Undergrad/ece_cs/cs411/Project/PantryTM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A8F172-DA22-9043-839F-AD1797409C72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D37B3A-D972-9342-8153-390A3C001926}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19340" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Form Responses" sheetId="6" r:id="rId1"/>
     <sheet name="Recipes" sheetId="2" r:id="rId2"/>
     <sheet name="Ingredients" sheetId="3" r:id="rId3"/>
     <sheet name="Meal Type" sheetId="4" r:id="rId4"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="348">
   <si>
     <t>Timestamp</t>
   </si>
@@ -661,6 +661,621 @@
   </si>
   <si>
     <t>CookTime</t>
+  </si>
+  <si>
+    <t>Take your 2 slices of white bread and spread the peanut butter and jelly equally on each slice. Then combine the 2 slices together.</t>
+  </si>
+  <si>
+    <t>Meal, Snack, Breakfast, Lunch</t>
+  </si>
+  <si>
+    <t>Vegetarian, Egg Free</t>
+  </si>
+  <si>
+    <t>saritap2@illinois.ed</t>
+  </si>
+  <si>
+    <t>saritap2</t>
+  </si>
+  <si>
+    <t>Herby couscous and garlic butter shrimp</t>
+  </si>
+  <si>
+    <t>bahaarb1@gmail.com</t>
+  </si>
+  <si>
+    <t>bbhatia2</t>
+  </si>
+  <si>
+    <t>Cucumber Bagels</t>
+  </si>
+  <si>
+    <t>cucumbers,1; cream cheese, seasoning (i use black pepper and garlic salt)</t>
+  </si>
+  <si>
+    <t>cut the cucumbers in half and lay on the cream cheese. season to your liking!</t>
+  </si>
+  <si>
+    <t>chickpeas, corn tortillas, bell pepper, onions, garlic, lime, avocado, choice of oil, choice of seasoning (salt, pepper, chili powder, taco seasoning, chipotle seasoning, etc.), cilantro (optional), sour cream (optional)</t>
+  </si>
+  <si>
+    <t>Baked white fish 🐟 with tomatoes, garlic, parsley and 🍋</t>
+  </si>
+  <si>
+    <t>Vegetarian, Vegan</t>
+  </si>
+  <si>
+    <t>Crispy Sweet Potato Fries</t>
+  </si>
+  <si>
+    <t>one sweet potato, olive oil, seasonings of your choice (salt, pepper, cayenne pepper, oregano)</t>
+  </si>
+  <si>
+    <t>Nut Free, Vegetarian, Vegan</t>
+  </si>
+  <si>
+    <t>Vegan pancakes</t>
+  </si>
+  <si>
+    <t>Meal, Breakfast</t>
+  </si>
+  <si>
+    <t>Mango Smoothie Bowl</t>
+  </si>
+  <si>
+    <t>Throw your frozen mango and banana into a blender and add a dash of milk. Blend the ingredients together in pulses, slowly adding milk until the chunks disappear and the consistency is like sorbet. Transfer your smoothie to a bowl and add your toppings -- the artsier, the better!</t>
+  </si>
+  <si>
+    <t>Smoothie on the go</t>
+  </si>
+  <si>
+    <t>2 bananas, 1 cup fresh or frozen mango, 1 cup frozen strawberries, 1/2 cup frozen blackberries, 1/2 cup frozen blueberries, 1 cup fresh chopped apples, 2 tbsp chia seeds, 2 cups oat milk</t>
+  </si>
+  <si>
+    <t>Put all ingredients in the blender and blend for about 30 seconds. Pour freshly made "Smoothie on the Go" into glass and enjoy :).</t>
+  </si>
+  <si>
+    <t>Vegetarian, Vegan, Egg Free</t>
+  </si>
+  <si>
+    <t>Vegan Pad Thai</t>
+  </si>
+  <si>
+    <t>Pad Thai rice noodles</t>
+  </si>
+  <si>
+    <t>boiling water</t>
+  </si>
+  <si>
+    <t>A Healthy Apple Crisp!</t>
+  </si>
+  <si>
+    <t>Meal, Snack, Lunch, Dinner</t>
+  </si>
+  <si>
+    <t>Orange tofu</t>
+  </si>
+  <si>
+    <t>Rigatoni with Vodka Sauce (Bon Appetit's recipe)</t>
+  </si>
+  <si>
+    <t>Salt, to taste; Onion, 1; Garlic, 4 cloves; Parmesan Cheese, 4oz; EV olive oil, 2 tbsp; Tomato paste, 4.5oz; Red pepper flakes, 1/2tsp; Vodka, 2oz; Heavy cream, 3/4 cup; Rigatoni pasta, 1lb box; basil leaves, for garnish</t>
+  </si>
+  <si>
+    <t>Boil and salt water. Peel and finely chop onion. Smash garlic cloves and grate Parmesan Cheese. Sautée olive oil, garlic, and onion for 5-7min over medium heat. Add tomato paste and pepper flakes to onion and garlic. Deglaze with vodka and incorporate, reducing heat to low. Mix heavy cream with 1/4 cup boiling water to preheat it, then add to pan with onion garlic and tomato paste. Stir until sauce thickens. Cook pasta to al dente and then transfer to sauce pan. Mix in more Parmesan cheese, and add more pasta water to thin sauce if necessary. Serve in a bowl, and drizzle with oil / garnish with basil.</t>
+  </si>
+  <si>
+    <t>conwell4@illinois.edu</t>
+  </si>
+  <si>
+    <t>Conwell4</t>
+  </si>
+  <si>
+    <t>"Tofu:
+1. Wrap the tofu with paper towels, place something heavy on top and leave for about an hour so the water drains out.
+2. Cut tofu into bite size pieces.
+3. Take a bag or a big bowl add your cut tofu with 2 tbsp of cornstarch and 2 tbsp of olive oil.
+4. Shake/mix the bag/bowl and place the tofu evenly on an oven pan and bake it for 400 °F until golden brown. We personally like our tofu to be extra crispy so we kept it in until it‘a golden brownish which about 20-25 minutes.
+Orange sauce:
+1. In a large pan on medium to low heat add 2 cups of vegetable broth or water, 1 cup of orange juice, 2 tbsp of apple cider vinegar, 4-5 tsp of chili paste, grated ginger, sugar, and 4-5 tsp of soy sauce (adjust the amount according to your sweetness and spice level).
+2. In a separate bowl add 2 tbsp of cornstarch and 2 tbsp of water. Mix it well together.
+3. Then, add the cornstarch mix to pan and stir it consistently until it thickens.
+4. Next, add the baked tofu in the sauce pan and mix it well until the tofu is coated with the sauce.
+5. Last but not least, you can serve it with rice, tacos or eat by itself!"</t>
+  </si>
+  <si>
+    <t>"1 box/ 14oz Firm tofu
+2 tbsp Corn starch
+2 tbsp Water
+2 tbsp Olive oil
+1 cup Fresh orange juice
+1/2 cup Sugar
+2 cups Vegetable broth
+2 tbsp Apple cider vinegar
+4 tsp Chili paste
+4 tsp Soy sauce
+1/4 tsp Ginger"</t>
+  </si>
+  <si>
+    <t>"chop or shred all greens finely
+mix with handvo mix above
+mix in 1 cup yogurt And all the other ingredients and let sit for 4-6 hours before cooking
+Oil muffin tins, pour batter Into each round and then sprinkle sesame seeds on top. If you don’t have muffin tins, grease a 9x13 or 9x9 pan and pour batter in there to bake. 
+cook at 350 degrees for 40 minutes or until golden brown
+broil on top rack until brown on top…for about 2-3 minutes. Be careful not to burn. 
+"</t>
+  </si>
+  <si>
+    <t>"3 cups handvo flour (1.5 cups Rice and 1.5 Chana daal if you’re making your own) 
+½ cup oil
+1 cup yogurt (can be regulat plain or vegan) 
+2 tsp  haldi (turmeric) powder 
+2 tsp dhana jeeru (cumin coriander) powder
+3 tsp pink Himalayan salt
+2 spoons crushed ajmo
+1 lb baby spinach chopped thinly 
+1/4 small cabbage shredded"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handvo (savory cakes) </t>
+  </si>
+  <si>
+    <t>"Combine and mix all ingredients to make the topping, and add the coconut oil in slowly, preferably with your hands. Place in fridge. 
+Combine all ingredients for the crisp and allow the mixture to soak for about 10 minutes. 
+Place the crisp evenly at the bottom of the pan, and pat the topping onto the apples. Bake the crisp at 350 degrees Fahrenheit, for around 40-55 minutes. Vanilla ice cream is an optional topping to this dessert/snack/breakfast! "</t>
+  </si>
+  <si>
+    <t>"Topping:
+1/6 cup almond flour
+1/4 cup old fashioned rolled oats
+1/6 cup coconut sugar
+1/4 cup chopped pecans (and/or almonds)
+1/8 cup coconut oil
+a pinch of cinnamon and salt
+Crisp: 
+3-5 red/ Granny Smith apples (thin slices - no peel)
+1/6 cup maple syrup
+2 teaspoons pure vanilla extract
+a dash of cinnamon and nutmeg"</t>
+  </si>
+  <si>
+    <t>"NOODLES
+1. Place the noodles in a large bowl and add boiling water to the bowl. 
+2. Cover the bowl with a plate and let it sit while preparing the tofu and sauce. 
+3. After about 20 minutes, drain and add 1 tbsp of sesame oil to the noodles and mix.
+Optional: you can also boil the noodles like you would normally boil noodles. 
+SAUCE
+1. Add all the sauce ingredients to a pan and mix with a whisk on low heat. Once everything is combined you can turn the heat off and let it sit. 
+TOFU/ASSEMBLY
+1. Add sesame oil to a pan and add the cubes tofu. 
+2. Add a sprinkle of salt on the tofu. (You don’t want to add a lot here because the sauce is already salty because of the soy sauce) 
+3. On medium heat cook the tofu until golden brown on each side. 
+4. Once golden brown, add the soy sauce to the tofu and mix until the tofu is coated and becomes a darker color. 
+5. Place the pan with the sauce on medium heat and add in the cooked noodles and tofu. 
+6. Mix until all the sauce is all over the noodles. 
+7. Add in the sprouts and sliced carrots and mix once more. 
+8. Add cilantro, peanuts, and lime juice on top and enjoy!"</t>
+  </si>
+  <si>
+    <t>"SAUCE
+1 tsp tamarind paste
+1/6 cup soy sauce
+3 tbsp brown sugar
+1/2 Sambal chili sauce
+1 tbsp lime juice
+1 tsp rice vinegar 
+TOFU
+1 cup of cubed extra firm tofu
+1 tbsp sesame oil
+1/2 tbsp soy sauce
+NOODLES
+Pad Thai rice noodles
+boiling water
+1 tbsp sesame oil
+TOPPINGS
+Shredded carrots 
+Bean sprouts
+Crushed peanuts
+Fresh lime
+Cilantro "</t>
+  </si>
+  <si>
+    <t>"1 mango, diced and frozen
+3/4 banana, sliced and frozen 
+~1/4 cup any milk (I like oat milk!) 
+Toppings: chia seeds, fresh fruit, grates coconut, chopped almonds, granola, nut butter, chocolate chips, or anything else"</t>
+  </si>
+  <si>
+    <t>"1. Combine dry ingredients and sift
+2. Mix wet ingredients in a small bowl
+3. Add wet ingredients to dry ingredients slowly by pouring a little at a time
+4. Heat griddle to low-medium and spray cooking oil
+5. Scoop 1/4 of batter onto griddle
+6. Cook 1-2 minutes on each side"</t>
+  </si>
+  <si>
+    <t>"1 cup of flour
+2 teaspoons of baking powder
+2 teaspoons of cinnamon
+1/4 teaspoon of salt
+2 tablespoons of maple syrup 
+1 teaspoon of vanilla
+1/4 cup of unsweetened applesauce 
+1 cup of dairy-free milk"</t>
+  </si>
+  <si>
+    <t>"1. Peel and cut your sweet potato into long strands that are about 1/4-1/2 inch wide
+2. Arrange on a baking sheet 
+3. Drizzle with olive oil
+4. Combine seasonings of your choice into a small bowl, mix and spread evenly on baking sheet
+5. Preheat oven to 400 degrees
+6. Bake for 15 mins, turn fries over to the other side and bake for another 10 minutes
+7. Serve when hot and with any condiments of your choice "</t>
+  </si>
+  <si>
+    <t>"Combine the basil, garlic, and pistachio Nuts in a food processor and pulse until coarsely chopped. 
+Add 2/3 cup of the oil and process until fully incorporated and smooth. 
+Season with salt and pepper. 
+Mix in the cheese and serve. 
+I don’t put cheese in it since I’m Vegan. 
+I have added violife vegan Parmesan cheese on top at times! 
+Enjoy Mixed in pasta or with warm bread as a dip! 
+"</t>
+  </si>
+  <si>
+    <t>"2 cups packed fresh basil leaves
+2 cloves garlic
+1/4 cup pistachio nuts (can use other nuts if you’re allergic) 
+2/3 cup extra-virgin olive oil, divided
+Kosher salt and freshly ground black pepper, to taste
+1/2 cup freshly grated Pecorino cheese (if you want... I don’t put cheese) 
+"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organic basil garlic pistachio pesto  </t>
+  </si>
+  <si>
+    <t>"
+- Set your oven for about 400 F - Dry your white fish with paper towels and season with salt and pepper. - Place in the baking dish, add butter, few slices of 🍋, a couple of garlic cloves and fresh parsley
+- Place in the oven for 10 min
+- Add cherry tomatoes (as many as you like) I love them 🥰
+- Put back in the oven for another 10-15 min until the fish is flaky and tomatoes 🍅 bursting
+Enjoy!!! 🤗"</t>
+  </si>
+  <si>
+    <t>"white fish 🐟 2 filets 
+Cherry tomatoes 🍅 1 cup
+garlic cloves, 4 mincd
+parsley 1/4 cup
+Lemon🍋 couple of slices 
+Butter 1/3 cup
+Salt and pepper to taste"</t>
+  </si>
+  <si>
+    <t>"1. Toss chickpeas in oil and your choice of seasonings. Place on baking sheet and bake in oven at 350 degrees for 20 minutes. 
+2. In the meantime, dice the bell peppers and onions, finely chop the garlic, and saute on medium-heat with oil and seasonings until softened. 
+3. To make a quick guacamole, mash up some avocado and mix with a squeeze of lime juice, some chili powder, some diced onion, and salt and pepper. 
+4. When the chickpeas are almost done, heat up your tortillas. Finely chop the cilantro.
+5. Assembly time: top each tortilla with the pepper mixture, the chickpeas, the guac, and a squeeze of lime. Top with cilantro and sour cream if desired. "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crispy Chickpea Tacos </t>
+  </si>
+  <si>
+    <t>"Toast Couscous with a little bit of oil
+Add 2 cups of water, 2 tbsp of salt and 1 smashed garlic clove 
+Bring to boil, cover the pot, and let it simmer for 10 -12 minutes
+Take out the garlic clove and save for later
+Once all the water is absorbed add green onions, 3 tbsp cilantro, and artichoke lemon pesto
+Set aside couscous
+For the shrimp mix together butter, remaining cilantro, chopped garlic, and 1 white portion of green onion chopped
+Place shrimp on foil, drizzle with a little bit of oil, salt and pepper, and lime juice, then  smother shrimp with butter mixture
+Tent the foil and bake for 15 minutes at 350F
+Serve couscous with shrimp and drizzle on top with the melted butter and juices from shrimp pouch."</t>
+  </si>
+  <si>
+    <t>"~ 1 &amp; 3/4 cups of Israeli Couscous
+~ 6 deveined and shelled shrimp 
+~ 2 cups water 
+~ 2 cloves of garlic 
+~3 tbsp of avocado butter
+~3 tbsp of artichoke lemon pesto
+~5 tbsp of chopped cilantro
+~ 3 green onions (save 1 white part for butter mixture)
+~1/2 lime 
+~1-2 tbsp olive oil
+~1 tbsp red pepper flakes
+~2 tbsp salt
+~ 1/2 tbsp freshly cracked pepper"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White bread slice, 2; Peanut butter, 1 tablespoon; Grape jelly, 2 teaspoons </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peanut Butter and Jelly Sandwich </t>
+  </si>
+  <si>
+    <t>"- Set your oven for about 400 F - Dry your white fish with paper towels and season with salt and pepper. - Place in the baking dish, add butter, few slices of lemon, a couple of garlic cloves and fresh parsley
+- Place in the oven for 10 min
+- Add cherry tomatoes (as many as you like) I love them 
+- Put back in the oven for another 10-15 min until the fish is flaky and tomatoes bursting
+Enjoy!!!"</t>
+  </si>
+  <si>
+    <t>Baked white fish with tomatoes, garlic, parsley and lemon</t>
+  </si>
+  <si>
+    <t>white bread</t>
+  </si>
+  <si>
+    <t>peanut butter</t>
+  </si>
+  <si>
+    <t>grape jelly</t>
+  </si>
+  <si>
+    <t>Israeli Couscous</t>
+  </si>
+  <si>
+    <t>deveined and shelled shrimp</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>avocado butter</t>
+  </si>
+  <si>
+    <t>artichoke lemon pesto</t>
+  </si>
+  <si>
+    <t>chopped cilantro</t>
+  </si>
+  <si>
+    <t>lime</t>
+  </si>
+  <si>
+    <t>red pepper flakes</t>
+  </si>
+  <si>
+    <t>freshly cracked pepper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seasoning </t>
+  </si>
+  <si>
+    <t>cream cheese</t>
+  </si>
+  <si>
+    <t>chick peas</t>
+  </si>
+  <si>
+    <t>corn tortillas</t>
+  </si>
+  <si>
+    <t>bell pepper</t>
+  </si>
+  <si>
+    <t>cilantro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sour cream </t>
+  </si>
+  <si>
+    <t>white fish</t>
+  </si>
+  <si>
+    <t>cherry tomatoes</t>
+  </si>
+  <si>
+    <t>minced parsley</t>
+  </si>
+  <si>
+    <t>lemon</t>
+  </si>
+  <si>
+    <t>pepper</t>
+  </si>
+  <si>
+    <t>fillet</t>
+  </si>
+  <si>
+    <t>fresh basil leaves</t>
+  </si>
+  <si>
+    <t>pistachio nits</t>
+  </si>
+  <si>
+    <t>extra virgin olive oil</t>
+  </si>
+  <si>
+    <t>kosher salt</t>
+  </si>
+  <si>
+    <t>freshly ground pepper</t>
+  </si>
+  <si>
+    <t>freshly grated Pecorino cheese</t>
+  </si>
+  <si>
+    <t>sweet potato</t>
+  </si>
+  <si>
+    <t>flour</t>
+  </si>
+  <si>
+    <t>cinnamon</t>
+  </si>
+  <si>
+    <t>maple syrup</t>
+  </si>
+  <si>
+    <t>unsweetened applesauce</t>
+  </si>
+  <si>
+    <t>dairy-free milk</t>
+  </si>
+  <si>
+    <t>mango</t>
+  </si>
+  <si>
+    <t>chia seeds</t>
+  </si>
+  <si>
+    <t>fresh fruit</t>
+  </si>
+  <si>
+    <t>grated coconut</t>
+  </si>
+  <si>
+    <t>chopped almond</t>
+  </si>
+  <si>
+    <t>granola</t>
+  </si>
+  <si>
+    <t>nut butter</t>
+  </si>
+  <si>
+    <t>diced frozen bananas</t>
+  </si>
+  <si>
+    <t>frozen mango</t>
+  </si>
+  <si>
+    <t>frozen strawberries</t>
+  </si>
+  <si>
+    <t>frozen blackberries</t>
+  </si>
+  <si>
+    <t>froxen blueberries</t>
+  </si>
+  <si>
+    <t>chopped apples</t>
+  </si>
+  <si>
+    <t>oat milk</t>
+  </si>
+  <si>
+    <t>tanarind paste</t>
+  </si>
+  <si>
+    <t>soy cauce</t>
+  </si>
+  <si>
+    <t>Sambal chili sauce</t>
+  </si>
+  <si>
+    <t>lime juice</t>
+  </si>
+  <si>
+    <t>rice vinegar</t>
+  </si>
+  <si>
+    <t>cubed extra firm tofu</t>
+  </si>
+  <si>
+    <t>shredded carrots</t>
+  </si>
+  <si>
+    <t>bean sprouts</t>
+  </si>
+  <si>
+    <t>crushed peanuts</t>
+  </si>
+  <si>
+    <t>fresh lime</t>
+  </si>
+  <si>
+    <t>almond flour</t>
+  </si>
+  <si>
+    <t>old fashioned rolled oats</t>
+  </si>
+  <si>
+    <t>cocunut sugar</t>
+  </si>
+  <si>
+    <t>chopped pecans</t>
+  </si>
+  <si>
+    <t>cocunut oil</t>
+  </si>
+  <si>
+    <t>red or granny smoth apples</t>
+  </si>
+  <si>
+    <t>pure vanilla extracct</t>
+  </si>
+  <si>
+    <t>nutmeg</t>
+  </si>
+  <si>
+    <t>dash</t>
+  </si>
+  <si>
+    <t>handvo flour</t>
+  </si>
+  <si>
+    <t>yogurt</t>
+  </si>
+  <si>
+    <t>haldi (tumeric) powder</t>
+  </si>
+  <si>
+    <t>dhana jeeru (cumin coriander) powder</t>
+  </si>
+  <si>
+    <t>pink himalayan salt</t>
+  </si>
+  <si>
+    <t>crushed ajmo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shredded cmall cabbage </t>
+  </si>
+  <si>
+    <t xml:space="preserve">thinly chopped baby spinach </t>
+  </si>
+  <si>
+    <t>spoon</t>
+  </si>
+  <si>
+    <t>firm tofu</t>
+  </si>
+  <si>
+    <t>corn starch</t>
+  </si>
+  <si>
+    <t>fresh orange juice</t>
+  </si>
+  <si>
+    <t>vegetable broth</t>
+  </si>
+  <si>
+    <t>apple cider vinegar</t>
+  </si>
+  <si>
+    <t>chilli paste</t>
+  </si>
+  <si>
+    <t>ginger</t>
+  </si>
+  <si>
+    <t>parmesan cheese</t>
+  </si>
+  <si>
+    <t>extra vrigin olive oil</t>
+  </si>
+  <si>
+    <t>vodka</t>
+  </si>
+  <si>
+    <t>rigatoni pasta</t>
+  </si>
+  <si>
+    <t>basil leaves</t>
   </si>
 </sst>
 </file>
@@ -702,7 +1317,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -712,6 +1327,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,15 +1346,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -744,14 +1362,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{1AB8E7B4-3683-3946-B95F-BC7BBA27B637}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -963,584 +1601,1107 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986B9949-0191-CC4E-BF9A-FD8F3ABF31CC}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="21" width="21.5" customWidth="1"/>
+    <col min="1" max="21" width="21.5" style="9" customWidth="1"/>
+    <col min="22" max="16384" width="14.5" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4">
+      <c r="A2" s="11">
         <v>44032.895285740742</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="10">
         <v>20</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="10">
         <v>10</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4">
+      <c r="A3" s="11">
         <v>44032.924516793981</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="10">
         <v>5</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="10">
         <v>5</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="11">
+    <row r="4" spans="1:15" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="14">
         <v>44032.927218738427</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="15">
         <v>5</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="15">
         <v>5</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="15">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4">
+      <c r="A5" s="11">
         <v>44032.931761643515</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="3">
-        <v>1</v>
-      </c>
-      <c r="I5" s="3">
+      <c r="H5" s="10">
+        <v>1</v>
+      </c>
+      <c r="I5" s="10">
         <v>0</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4">
+      <c r="A6" s="11">
         <v>44032.932176875001</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="10">
         <v>15</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="10">
         <v>10</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="10">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4">
+      <c r="A7" s="11">
         <v>44032.942200775462</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="10">
         <v>15</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="10">
         <v>3</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="10">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4">
+      <c r="A8" s="11">
         <v>44032.947066956018</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="10">
         <v>60</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="10">
         <v>240</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4">
+      <c r="A9" s="11">
         <v>44032.965177222221</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="10">
         <v>10</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="10">
         <v>10</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="10">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4">
+      <c r="A10" s="11">
         <v>44033.121972245368</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="10">
         <v>5</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="10">
         <v>10</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="4">
+      <c r="A11" s="11">
         <v>44033.346245497683</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="10">
         <v>5</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="10">
         <v>30</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="4">
+      <c r="A12" s="11">
         <v>44033.398409016205</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="10">
         <v>20</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="10">
         <v>15</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="10">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="4">
+      <c r="A13" s="11">
         <v>44033.415464224541</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="10">
         <v>2</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="10">
         <v>4</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="M13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="11">
+      <c r="M13" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="14">
         <v>44033.421609409721</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="15">
         <v>15</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="15">
         <v>3</v>
       </c>
-      <c r="J14" s="12" t="s">
+      <c r="J14" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="K14" s="12" t="s">
+      <c r="K14" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="M14" s="12">
+      <c r="M14" s="15">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="11">
+    <row r="15" spans="1:15" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="14">
         <v>44033.449501203708</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="15">
         <v>2</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="15">
         <v>4</v>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="J15" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="K15" s="12" t="s">
+      <c r="K15" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="M15" s="12">
+      <c r="M15" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="4">
+      <c r="A16" s="11">
         <v>44034.780197708329</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="10">
         <v>10</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="10">
         <v>20</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="J16" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M16" s="10">
         <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="19">
+        <v>44034.944868090279</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="H17" s="20">
+        <v>2</v>
+      </c>
+      <c r="I17" s="20">
+        <v>0</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="M17" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="11">
+        <v>44035.499949120371</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="H18" s="10">
+        <v>15</v>
+      </c>
+      <c r="I18" s="10">
+        <v>15</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="M18" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="13">
+        <v>44035.501210277776</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" s="12">
+        <v>0</v>
+      </c>
+      <c r="I19" s="12">
+        <v>1</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="M19" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="13">
+        <v>44035.502673310184</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H20" s="12">
+        <v>5</v>
+      </c>
+      <c r="I20" s="12">
+        <v>20</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="M20" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="13">
+        <v>44035.503882916666</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="H21" s="12">
+        <v>0</v>
+      </c>
+      <c r="I21" s="12">
+        <v>30</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="M21" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="11">
+        <v>44035.505958298614</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="H22" s="10">
+        <v>0</v>
+      </c>
+      <c r="I22" s="10">
+        <v>5</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="M22" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="11">
+        <v>44035.507071053245</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="H23" s="10">
+        <v>10</v>
+      </c>
+      <c r="I23" s="10">
+        <v>30</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="M23" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="11">
+        <v>44035.508413125004</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="H24" s="10">
+        <v>0</v>
+      </c>
+      <c r="I24" s="10">
+        <v>15</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="M24" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="11">
+        <v>44035.509838425925</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="H25" s="10">
+        <v>0</v>
+      </c>
+      <c r="I25" s="10">
+        <v>10</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="M25" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="11">
+        <v>44035.512415937497</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="H26" s="10">
+        <v>0</v>
+      </c>
+      <c r="I26" s="10">
+        <v>4</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="M26" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="11">
+        <v>44035.513752893516</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="H27" s="10">
+        <v>5</v>
+      </c>
+      <c r="I27" s="10">
+        <v>25</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="M27" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="11">
+        <v>44035.515446979167</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H28" s="10">
+        <v>5</v>
+      </c>
+      <c r="I28" s="10">
+        <v>40</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="M28" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="11">
+        <v>44035.516858692128</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H29" s="10">
+        <v>15</v>
+      </c>
+      <c r="I29" s="10">
+        <v>40</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="M29" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="11">
+        <v>44035.517984328704</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H30" s="10">
+        <v>0</v>
+      </c>
+      <c r="I30" s="10">
+        <v>20</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="M30" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="11">
+        <v>44035.556511539355</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H31" s="10">
+        <v>10</v>
+      </c>
+      <c r="I31" s="10">
+        <v>15</v>
+      </c>
+      <c r="J31" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="M31" s="10">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1551,35 +2712,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{058C88DC-DF2F-D048-9BC9-5A35CF1F52E3}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:F19"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="43.1640625" customWidth="1"/>
-    <col min="3" max="3" width="130" style="6" customWidth="1"/>
+    <col min="3" max="3" width="130" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="5" t="s">
         <v>89</v>
       </c>
       <c r="B1" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>192</v>
       </c>
     </row>
@@ -1587,16 +2748,16 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="1">
         <v>20</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="1">
         <v>10</v>
       </c>
     </row>
@@ -1604,19 +2765,19 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="1">
         <v>5</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="1">
         <v>5</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="1">
         <v>6</v>
       </c>
     </row>
@@ -1624,19 +2785,19 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="5">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5">
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
         <v>0</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1644,19 +2805,19 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="1">
         <v>15</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="1">
         <v>10</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="1">
         <v>4</v>
       </c>
     </row>
@@ -1664,19 +2825,19 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="1">
         <v>15</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="1">
         <v>3</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="1">
         <v>5</v>
       </c>
     </row>
@@ -1684,19 +2845,19 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="1">
         <v>60</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="1">
         <v>240</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="1">
         <v>10</v>
       </c>
     </row>
@@ -1704,19 +2865,19 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="1">
         <v>10</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="1">
         <v>10</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="1">
         <v>6</v>
       </c>
     </row>
@@ -1724,19 +2885,19 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="1">
         <v>5</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="1">
         <v>10</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1744,19 +2905,19 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="1">
         <v>5</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="1">
         <v>30</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1764,19 +2925,19 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="1">
         <v>20</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="1">
         <v>15</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="1">
         <v>8</v>
       </c>
     </row>
@@ -1784,19 +2945,19 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="1">
         <v>2</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="1">
         <v>4</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1804,85 +2965,320 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="1">
         <v>10</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="1">
         <v>20</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B14" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="D14" s="10">
+        <v>2</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0</v>
+      </c>
+      <c r="F14" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="266" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B15" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="D15" s="10">
+        <v>15</v>
+      </c>
+      <c r="E15" s="10">
+        <v>15</v>
+      </c>
+      <c r="F15" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B16" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0</v>
+      </c>
+      <c r="E16" s="12">
+        <v>1</v>
+      </c>
+      <c r="F16" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="70" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B17" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="D17" s="12">
+        <v>5</v>
+      </c>
+      <c r="E17" s="12">
+        <v>20</v>
+      </c>
+      <c r="F17" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="98" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B18" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="D18" s="12">
+        <v>0</v>
+      </c>
+      <c r="E18" s="12">
+        <v>30</v>
+      </c>
+      <c r="F18" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="140" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B19" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="D19" s="10">
+        <v>0</v>
+      </c>
+      <c r="E19" s="10">
+        <v>5</v>
+      </c>
+      <c r="F19" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="98" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B20" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="D20" s="10">
+        <v>10</v>
+      </c>
+      <c r="E20" s="10">
+        <v>30</v>
+      </c>
+      <c r="F20" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="84" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B21" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="D21" s="10">
+        <v>0</v>
+      </c>
+      <c r="E21" s="10">
+        <v>15</v>
+      </c>
+      <c r="F21" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B22" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="D22" s="10">
+        <v>0</v>
+      </c>
+      <c r="E22" s="10">
+        <v>10</v>
+      </c>
+      <c r="F22" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B23" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="D23" s="10">
+        <v>0</v>
+      </c>
+      <c r="E23" s="10">
+        <v>4</v>
+      </c>
+      <c r="F23" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="266" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B24" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="D24" s="10">
+        <v>5</v>
+      </c>
+      <c r="E24" s="10">
+        <v>25</v>
+      </c>
+      <c r="F24" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="56" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B25" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="D25" s="10">
+        <v>5</v>
+      </c>
+      <c r="E25" s="10">
+        <v>40</v>
+      </c>
+      <c r="F25" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="182" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="D26" s="10">
+        <v>15</v>
+      </c>
+      <c r="E26" s="10">
+        <v>40</v>
+      </c>
+      <c r="F26" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="196" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="D27" s="10">
+        <v>0</v>
+      </c>
+      <c r="E27" s="10">
+        <v>20</v>
+      </c>
+      <c r="F27" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="56" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="D28" s="10">
+        <v>10</v>
+      </c>
+      <c r="E28" s="10">
+        <v>15</v>
+      </c>
+      <c r="F28" s="10">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1892,30 +3288,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604D75AF-6910-C04A-831A-DED0FB0E43A4}">
-  <dimension ref="A1:H93"/>
+  <dimension ref="A1:H227"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView topLeftCell="A183" workbookViewId="0">
+      <selection activeCell="A217" sqref="A217:A227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="21.83203125" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="152" style="6" customWidth="1"/>
+    <col min="5" max="5" width="152" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="4" t="s">
         <v>184</v>
       </c>
     </row>
@@ -1923,279 +3319,279 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="4" t="s">
         <v>161</v>
       </c>
       <c r="C2">
         <v>1.5</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="7"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="4" t="s">
         <v>95</v>
       </c>
       <c r="C3">
         <v>0.75</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="4" t="s">
         <v>96</v>
       </c>
       <c r="C4">
         <v>0.75</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="4" t="s">
         <v>97</v>
       </c>
       <c r="C5">
         <v>0.75</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="4" t="s">
         <v>98</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="4" t="s">
         <v>99</v>
       </c>
       <c r="C7">
         <v>0.25</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="4" t="s">
         <v>100</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>1</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="4" t="s">
         <v>101</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E9" s="7"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>1</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="4" t="s">
         <v>102</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E10" s="7"/>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>1</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C11">
         <v>6</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E11" s="7"/>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>2</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="4" t="s">
         <v>104</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>2</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="7"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>2</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="4" t="s">
         <v>95</v>
       </c>
       <c r="C14">
         <v>0.25</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E14" s="7"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>2</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="4" t="s">
         <v>100</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E15" s="7"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>2</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="4" t="s">
         <v>106</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E16" s="7"/>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>2</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E17" s="5"/>
+      <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>2</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="4" t="s">
         <v>110</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E18" s="7"/>
+      <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>2</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="7"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>3</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="4">
         <v>2</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2203,13 +3599,13 @@
       <c r="A21">
         <v>3</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="4">
         <v>1.5</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2217,53 +3613,53 @@
       <c r="A22">
         <v>4</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>4</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>4</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>4</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>4</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="4">
         <v>0.5</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="4" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2271,13 +3667,13 @@
       <c r="A27">
         <v>4</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="4" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2285,13 +3681,13 @@
       <c r="A28">
         <v>4</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="4" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2299,13 +3695,13 @@
       <c r="A29">
         <v>4</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="4" t="s">
         <v>122</v>
       </c>
       <c r="C29">
         <v>0.5</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="4" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2313,13 +3709,13 @@
       <c r="A30">
         <v>4</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="4" t="s">
         <v>124</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="4" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2327,28 +3723,28 @@
       <c r="A31">
         <v>4</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E31" s="5"/>
+      <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>4</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="4" t="s">
         <v>126</v>
       </c>
       <c r="C32">
         <v>1.5</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="4" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2356,13 +3752,13 @@
       <c r="A33">
         <v>4</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="4" t="s">
         <v>98</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="4" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2370,82 +3766,82 @@
       <c r="A34">
         <v>4</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C34">
         <v>1.5</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="H34" s="6"/>
+      <c r="H34" s="2"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>4</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>5</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>5</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>5</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>5</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>5</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>5</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="4" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2453,13 +3849,13 @@
       <c r="A42">
         <v>6</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="4" t="s">
         <v>133</v>
       </c>
       <c r="C42">
         <v>4</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D42" s="4" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2467,13 +3863,13 @@
       <c r="A43">
         <v>6</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="4" t="s">
         <v>134</v>
       </c>
       <c r="C43">
         <v>30</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="4" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2481,13 +3877,13 @@
       <c r="A44">
         <v>6</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C44">
         <v>5</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="4" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2495,13 +3891,13 @@
       <c r="A45">
         <v>6</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="4" t="s">
         <v>97</v>
       </c>
       <c r="C45">
         <v>2</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="4" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2509,13 +3905,13 @@
       <c r="A46">
         <v>6</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="4" t="s">
         <v>100</v>
       </c>
       <c r="C46">
         <v>7</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="4" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2523,13 +3919,13 @@
       <c r="A47">
         <v>7</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C47">
         <v>6</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2537,13 +3933,13 @@
       <c r="A48">
         <v>7</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="4" t="s">
         <v>137</v>
       </c>
       <c r="C48">
         <v>0.75</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D48" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2551,28 +3947,28 @@
       <c r="A49">
         <v>7</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="4" t="s">
         <v>138</v>
       </c>
       <c r="C49">
         <v>3</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E49" s="7"/>
+      <c r="E49" s="3"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>7</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="4" t="s">
         <v>140</v>
       </c>
       <c r="C50">
         <v>3</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="4" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2580,13 +3976,13 @@
       <c r="A51">
         <v>7</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C51">
         <v>0.75</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2594,13 +3990,13 @@
       <c r="A52">
         <v>7</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="4" t="s">
         <v>95</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="4" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2608,13 +4004,13 @@
       <c r="A53">
         <v>7</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="4" t="s">
         <v>142</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="4" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2622,13 +4018,13 @@
       <c r="A54">
         <v>8</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="4" t="s">
         <v>144</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D54" s="4" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2636,13 +4032,13 @@
       <c r="A55">
         <v>8</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="4" t="s">
         <v>145</v>
       </c>
       <c r="C55">
         <v>0.5</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="4" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2650,13 +4046,13 @@
       <c r="A56">
         <v>8</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="4" t="s">
         <v>146</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D56" s="4" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2664,13 +4060,13 @@
       <c r="A57">
         <v>8</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="4" t="s">
         <v>147</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2678,13 +4074,13 @@
       <c r="A58">
         <v>8</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="4" t="s">
         <v>148</v>
       </c>
       <c r="C58">
         <v>3</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D58" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2692,13 +4088,13 @@
       <c r="A59">
         <v>8</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="4" t="s">
         <v>149</v>
       </c>
       <c r="C59">
         <v>14</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D59" s="4" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2706,13 +4102,13 @@
       <c r="A60">
         <v>8</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="4" t="s">
         <v>150</v>
       </c>
       <c r="C60">
         <v>1.5</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="D60" s="4" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2720,13 +4116,13 @@
       <c r="A61">
         <v>8</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C61" s="8">
+      <c r="C61" s="4">
         <v>0.25</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D61" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2734,13 +4130,13 @@
       <c r="A62">
         <v>8</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C62" s="8">
+      <c r="C62" s="4">
         <v>2</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="D62" s="4" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2748,13 +4144,13 @@
       <c r="A63">
         <v>8</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C63" s="8">
-        <v>1</v>
-      </c>
-      <c r="D63" s="8" t="s">
+      <c r="C63" s="4">
+        <v>1</v>
+      </c>
+      <c r="D63" s="4" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2762,28 +4158,28 @@
       <c r="A64">
         <v>8</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C64" s="8">
+      <c r="C64" s="4">
         <v>2</v>
       </c>
-      <c r="D64" s="8" t="s">
+      <c r="D64" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E64" s="5"/>
+      <c r="E64" s="1"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>8</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C65" s="8">
+      <c r="C65" s="4">
         <v>2</v>
       </c>
-      <c r="D65" s="8" t="s">
+      <c r="D65" s="4" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2791,13 +4187,13 @@
       <c r="A66">
         <v>8</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C66" s="8">
-        <v>1</v>
-      </c>
-      <c r="D66" s="8" t="s">
+      <c r="C66" s="4">
+        <v>1</v>
+      </c>
+      <c r="D66" s="4" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2805,13 +4201,13 @@
       <c r="A67">
         <v>9</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C67" s="8">
-        <v>1</v>
-      </c>
-      <c r="D67" s="8" t="s">
+      <c r="C67" s="4">
+        <v>1</v>
+      </c>
+      <c r="D67" s="4" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2819,13 +4215,13 @@
       <c r="A68">
         <v>9</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C68" s="8">
+      <c r="C68" s="4">
         <v>0.5</v>
       </c>
-      <c r="D68" s="8" t="s">
+      <c r="D68" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2833,13 +4229,13 @@
       <c r="A69">
         <v>9</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C69" s="8">
-        <v>1</v>
-      </c>
-      <c r="D69" s="8" t="s">
+      <c r="C69" s="4">
+        <v>1</v>
+      </c>
+      <c r="D69" s="4" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2847,13 +4243,13 @@
       <c r="A70">
         <v>9</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C70" s="8">
-        <v>1</v>
-      </c>
-      <c r="D70" s="8" t="s">
+      <c r="C70" s="4">
+        <v>1</v>
+      </c>
+      <c r="D70" s="4" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2861,13 +4257,13 @@
       <c r="A71">
         <v>9</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C71" s="8">
+      <c r="C71" s="4">
         <v>2</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="D71" s="4" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2875,28 +4271,28 @@
       <c r="A72">
         <v>9</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="B72" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C72" s="8">
+      <c r="C72" s="4">
         <v>3</v>
       </c>
-      <c r="D72" s="8" t="s">
+      <c r="D72" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E72" s="7"/>
+      <c r="E72" s="3"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>10</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C73" s="8">
-        <v>1</v>
-      </c>
-      <c r="D73" s="8" t="s">
+      <c r="C73" s="4">
+        <v>1</v>
+      </c>
+      <c r="D73" s="4" t="s">
         <v>166</v>
       </c>
     </row>
@@ -2904,13 +4300,13 @@
       <c r="A74">
         <v>10</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B74" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C74" s="8">
+      <c r="C74" s="4">
         <v>0.5</v>
       </c>
-      <c r="D74" s="8" t="s">
+      <c r="D74" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2918,13 +4314,13 @@
       <c r="A75">
         <v>10</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C75" s="8">
+      <c r="C75" s="4">
         <v>0.5</v>
       </c>
-      <c r="D75" s="8" t="s">
+      <c r="D75" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2932,13 +4328,13 @@
       <c r="A76">
         <v>10</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C76" s="8">
+      <c r="C76" s="4">
         <v>1.5</v>
       </c>
-      <c r="D76" s="8" t="s">
+      <c r="D76" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2946,13 +4342,13 @@
       <c r="A77">
         <v>10</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B77" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C77" s="8">
+      <c r="C77" s="4">
         <v>2.5</v>
       </c>
-      <c r="D77" s="8" t="s">
+      <c r="D77" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2960,13 +4356,13 @@
       <c r="A78">
         <v>10</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="B78" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C78" s="8">
+      <c r="C78" s="4">
         <v>4</v>
       </c>
-      <c r="D78" s="8" t="s">
+      <c r="D78" s="4" t="s">
         <v>167</v>
       </c>
     </row>
@@ -2974,13 +4370,13 @@
       <c r="A79">
         <v>10</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C79" s="8">
+      <c r="C79" s="4">
         <v>2</v>
       </c>
-      <c r="D79" s="8" t="s">
+      <c r="D79" s="4" t="s">
         <v>167</v>
       </c>
     </row>
@@ -2988,13 +4384,13 @@
       <c r="A80">
         <v>10</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C80" s="8">
+      <c r="C80" s="4">
         <v>0.5</v>
       </c>
-      <c r="D80" s="8" t="s">
+      <c r="D80" s="4" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3002,13 +4398,13 @@
       <c r="A81">
         <v>10</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B81" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C81" s="8">
+      <c r="C81" s="4">
         <v>0.5</v>
       </c>
-      <c r="D81" s="8" t="s">
+      <c r="D81" s="4" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3016,13 +4412,13 @@
       <c r="A82">
         <v>10</v>
       </c>
-      <c r="B82" s="8" t="s">
+      <c r="B82" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C82" s="8">
+      <c r="C82" s="4">
         <v>0.25</v>
       </c>
-      <c r="D82" s="8" t="s">
+      <c r="D82" s="4" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3030,13 +4426,13 @@
       <c r="A83">
         <v>11</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B83" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C83" s="8">
+      <c r="C83" s="4">
         <v>2</v>
       </c>
-      <c r="D83" s="8" t="s">
+      <c r="D83" s="4" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3044,43 +4440,43 @@
       <c r="A84">
         <v>11</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="B84" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C84" s="8">
+      <c r="C84" s="4">
         <v>2</v>
       </c>
-      <c r="D84" s="8" t="s">
+      <c r="D84" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E84" s="5"/>
+      <c r="E84" s="1"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>11</v>
       </c>
-      <c r="B85" s="8" t="s">
+      <c r="B85" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C85" s="8">
+      <c r="C85" s="4">
         <v>2</v>
       </c>
-      <c r="D85" s="8" t="s">
+      <c r="D85" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="E85" s="5"/>
+      <c r="E85" s="1"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>12</v>
       </c>
-      <c r="B86" s="8" t="s">
+      <c r="B86" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C86">
         <v>3</v>
       </c>
-      <c r="D86" s="8" t="s">
+      <c r="D86" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3088,14 +4484,14 @@
       <c r="A87">
         <v>12</v>
       </c>
-      <c r="B87" s="8" t="s">
+      <c r="B87" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="C87" s="10">
+      <c r="C87" s="6">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="D87" s="8" t="s">
+      <c r="D87" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3103,14 +4499,14 @@
       <c r="A88">
         <v>12</v>
       </c>
-      <c r="B88" s="8" t="s">
+      <c r="B88" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C88" s="10">
+      <c r="C88" s="6">
         <f t="shared" ref="C88:C89" si="0">1/3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="D88" s="8" t="s">
+      <c r="D88" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3118,14 +4514,14 @@
       <c r="A89">
         <v>12</v>
       </c>
-      <c r="B89" s="8" t="s">
+      <c r="B89" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C89" s="10">
+      <c r="C89" s="6">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="D89" s="8" t="s">
+      <c r="D89" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3133,13 +4529,13 @@
       <c r="A90">
         <v>12</v>
       </c>
-      <c r="B90" s="8" t="s">
+      <c r="B90" s="4" t="s">
         <v>144</v>
       </c>
       <c r="C90">
         <v>0.25</v>
       </c>
-      <c r="D90" s="8" t="s">
+      <c r="D90" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3147,13 +4543,13 @@
       <c r="A91">
         <v>12</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="B91" s="4" t="s">
         <v>176</v>
       </c>
       <c r="C91">
         <v>1</v>
       </c>
-      <c r="D91" s="8" t="s">
+      <c r="D91" s="4" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3161,28 +4557,1715 @@
       <c r="A92">
         <v>12</v>
       </c>
-      <c r="B92" s="8" t="s">
+      <c r="B92" s="4" t="s">
         <v>102</v>
       </c>
       <c r="C92">
         <v>1</v>
       </c>
-      <c r="D92" s="8" t="s">
+      <c r="D92" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A93">
-        <v>13</v>
-      </c>
-      <c r="B93" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B93" s="4" t="s">
         <v>177</v>
       </c>
       <c r="C93">
         <v>0.25</v>
       </c>
-      <c r="D93" s="8" t="s">
+      <c r="D93" s="4" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A94">
+        <v>13</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C94" s="4">
+        <v>2</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E94" s="20"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A95">
+        <v>13</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C95" s="4">
+        <v>1</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E95" s="17"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A96">
+        <v>13</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C96" s="4">
+        <v>2</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A97">
+        <v>14</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C97" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E97" s="12"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A98">
+        <v>14</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C98" s="4">
+        <v>6</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A99">
+        <v>14</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C99" s="4">
+        <v>2</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A100">
+        <v>14</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C100" s="4">
+        <v>2</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A101">
+        <v>14</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C101" s="4">
+        <v>3</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A102">
+        <v>14</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C102" s="4">
+        <v>3</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A103">
+        <v>14</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C103" s="4">
+        <v>5</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A104">
+        <v>14</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C104" s="4">
+        <v>3</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A105">
+        <v>14</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C105" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A106">
+        <v>14</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C106" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A107">
+        <v>14</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C107" s="4">
+        <v>1</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A108">
+        <v>14</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C108" s="4">
+        <v>2</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A109">
+        <v>14</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C109" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A110">
+        <v>15</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C110" s="4">
+        <v>1</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A111">
+        <v>15</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A112">
+        <v>15</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A113">
+        <v>16</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A114">
+        <v>16</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A115">
+        <v>16</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A116">
+        <v>16</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A117">
+        <v>16</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A118">
+        <v>16</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A119">
+        <v>16</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A120">
+        <v>16</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A121">
+        <v>16</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A122">
+        <v>16</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A123">
+        <v>16</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A124">
+        <v>17</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C124">
+        <v>2</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A125">
+        <v>17</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A126">
+        <v>17</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C126">
+        <v>4</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A127">
+        <v>17</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C127">
+        <v>0.25</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A128">
+        <v>17</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C128">
+        <v>2</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A129">
+        <v>17</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C129">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A130">
+        <v>17</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E130" s="17"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A131">
+        <v>17</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A132">
+        <v>18</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C132">
+        <v>2</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A133">
+        <v>18</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C133">
+        <v>2</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A134">
+        <v>18</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C134">
+        <v>0.25</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A135">
+        <v>18</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C135">
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A136">
+        <v>18</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A137">
+        <v>18</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="E137" s="10"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A138">
+        <v>18</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C138">
+        <v>0.5</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A139">
+        <v>19</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A140">
+        <v>19</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A141">
+        <v>19</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="E141" s="10"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A142">
+        <v>20</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E142" s="10"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A143">
+        <v>20</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C143">
+        <v>2</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A144">
+        <v>20</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C144">
+        <v>2</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A145">
+        <v>20</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C145">
+        <v>0.25</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A146">
+        <v>20</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C146">
+        <v>2</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A147">
+        <v>20</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A148">
+        <v>20</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C148">
+        <v>0.25</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A149">
+        <v>20</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A150">
+        <v>21</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A151">
+        <v>21</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C151">
+        <v>0.75</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A152">
+        <v>21</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C152">
+        <v>0.25</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A153">
+        <v>21</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A154">
+        <v>21</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A155">
+        <v>21</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A156">
+        <v>21</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A157">
+        <v>21</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A158">
+        <v>21</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="E158" s="10"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A159">
+        <v>21</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A160">
+        <v>22</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C160">
+        <v>2</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A161">
+        <v>22</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A162">
+        <v>22</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A163">
+        <v>22</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C163">
+        <v>0.5</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A164">
+        <v>22</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C164">
+        <v>0.5</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A165">
+        <v>22</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E165" s="17"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A166">
+        <v>22</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C166">
+        <v>2</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A167">
+        <v>22</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C167">
+        <v>2</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A168">
+        <v>23</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A169">
+        <v>23</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C169">
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A170">
+        <v>23</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C170">
+        <v>3</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A171">
+        <v>23</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C171">
+        <v>0.5</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A172">
+        <v>23</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C172">
+        <v>1</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A173">
+        <v>23</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C173">
+        <v>1</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A174">
+        <v>23</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C174">
+        <v>1</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A175">
+        <v>23</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C175">
+        <v>1</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A176">
+        <v>23</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C176">
+        <v>0.5</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A177">
+        <v>23</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A178">
+        <v>23</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A179">
+        <v>23</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C179">
+        <v>1</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A180">
+        <v>23</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A181">
+        <v>23</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A182">
+        <v>23</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A183">
+        <v>23</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A184">
+        <v>23</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A185">
+        <v>24</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C185">
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A186">
+        <v>24</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C186">
+        <v>0.25</v>
+      </c>
+      <c r="D186" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E186" s="17"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A187">
+        <v>24</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C187">
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D187" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A188">
+        <v>24</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C188">
+        <f>1/4</f>
+        <v>0.25</v>
+      </c>
+      <c r="D188" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A189">
+        <v>24</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C189">
+        <f>1/8</f>
+        <v>0.125</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A190">
+        <v>24</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C190">
+        <v>1</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A191">
+        <v>24</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C191">
+        <v>1</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A192">
+        <v>24</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C192">
+        <v>4</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A193">
+        <v>24</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C193">
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A194">
+        <v>24</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C194">
+        <v>2</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E194" s="17"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A195">
+        <v>24</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C195">
+        <v>1</v>
+      </c>
+      <c r="D195" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A196">
+        <v>24</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+      <c r="D196" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A197">
+        <v>25</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C197">
+        <v>3</v>
+      </c>
+      <c r="D197" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A198">
+        <v>25</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C198">
+        <v>0.5</v>
+      </c>
+      <c r="D198" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A199">
+        <v>25</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C199">
+        <v>1</v>
+      </c>
+      <c r="D199" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A200">
+        <v>25</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C200">
+        <v>2</v>
+      </c>
+      <c r="D200" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A201">
+        <v>25</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C201">
+        <v>2</v>
+      </c>
+      <c r="D201" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A202">
+        <v>25</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C202">
+        <v>3</v>
+      </c>
+      <c r="D202" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A203">
+        <v>25</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C203">
+        <v>2</v>
+      </c>
+      <c r="D203" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="E203" s="17"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A204">
+        <v>25</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="C204">
+        <v>1</v>
+      </c>
+      <c r="D204" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A205">
+        <v>25</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C205">
+        <v>0.25</v>
+      </c>
+      <c r="D205" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A206">
+        <v>26</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C206">
+        <v>1</v>
+      </c>
+      <c r="D206" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A207">
+        <v>26</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C207">
+        <v>2</v>
+      </c>
+      <c r="D207" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A208">
+        <v>26</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C208">
+        <v>2</v>
+      </c>
+      <c r="D208" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A209">
+        <v>26</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C209">
+        <v>2</v>
+      </c>
+      <c r="D209" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A210">
+        <v>26</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C210">
+        <v>1</v>
+      </c>
+      <c r="D210" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A211">
+        <v>26</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C211">
+        <v>0.5</v>
+      </c>
+      <c r="D211" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A212">
+        <v>26</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C212">
+        <v>2</v>
+      </c>
+      <c r="D212" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A213">
+        <v>26</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C213">
+        <v>2</v>
+      </c>
+      <c r="D213" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A214">
+        <v>26</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C214">
+        <v>4</v>
+      </c>
+      <c r="D214" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E214" s="17"/>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A215">
+        <v>26</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C215">
+        <v>4</v>
+      </c>
+      <c r="D215" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A216">
+        <v>26</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="C216">
+        <v>0.25</v>
+      </c>
+      <c r="D216" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A217">
+        <v>27</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A218">
+        <v>27</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C218">
+        <v>1</v>
+      </c>
+      <c r="D218" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A219">
+        <v>27</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C219">
+        <v>4</v>
+      </c>
+      <c r="D219" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A220">
+        <v>27</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="C220">
+        <v>4</v>
+      </c>
+      <c r="D220" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A221">
+        <v>27</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C221">
+        <v>2</v>
+      </c>
+      <c r="D221" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A222">
+        <v>27</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C222">
+        <v>4.5</v>
+      </c>
+      <c r="D222" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A223">
+        <v>27</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C223">
+        <v>0.5</v>
+      </c>
+      <c r="D223" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A224">
+        <v>27</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C224">
+        <v>2</v>
+      </c>
+      <c r="D224" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A225">
+        <v>27</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C225">
+        <v>0.75</v>
+      </c>
+      <c r="D225" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A226">
+        <v>27</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C226">
+        <v>1</v>
+      </c>
+      <c r="D226" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A227">
+        <v>27</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -3192,19 +6275,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C23D268-857B-3F42-8397-BD382B4E0BCB}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="5" t="s">
         <v>184</v>
       </c>
     </row>
@@ -3212,7 +6295,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3220,7 +6303,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3228,7 +6311,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="4" t="s">
         <v>178</v>
       </c>
     </row>
@@ -3236,7 +6319,7 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="4" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3244,7 +6327,7 @@
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3252,7 +6335,7 @@
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="4" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3260,7 +6343,7 @@
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="4" t="s">
         <v>180</v>
       </c>
     </row>
@@ -3268,7 +6351,7 @@
       <c r="A9">
         <v>4</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="4" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3276,7 +6359,7 @@
       <c r="A10">
         <v>5</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3284,7 +6367,7 @@
       <c r="A11">
         <v>6</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="4" t="s">
         <v>178</v>
       </c>
     </row>
@@ -3292,7 +6375,7 @@
       <c r="A12">
         <v>6</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="4" t="s">
         <v>180</v>
       </c>
     </row>
@@ -3300,16 +6383,16 @@
       <c r="A13">
         <v>6</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C13" s="8"/>
+      <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>7</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="4" t="s">
         <v>178</v>
       </c>
     </row>
@@ -3317,7 +6400,7 @@
       <c r="A15">
         <v>7</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="4" t="s">
         <v>180</v>
       </c>
     </row>
@@ -3325,115 +6408,115 @@
       <c r="A16">
         <v>7</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>8</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E17" s="5"/>
+      <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>8</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="E18" s="5"/>
+      <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>8</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E19" s="5"/>
+      <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>9</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="E20" s="5"/>
+      <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>9</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="E21" s="5"/>
+      <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>9</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="E22" s="5"/>
+      <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>10</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="E23" s="5"/>
+      <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>10</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E24" s="5"/>
+      <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>10</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="E25" s="5"/>
+      <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>11</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E26" s="5"/>
+      <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>11</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="E27" s="5"/>
+      <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>11</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="4" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3441,7 +6524,7 @@
       <c r="A29">
         <v>12</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="4" t="s">
         <v>178</v>
       </c>
     </row>
@@ -3449,7 +6532,7 @@
       <c r="A30">
         <v>12</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="4" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3457,8 +6540,232 @@
       <c r="A31">
         <v>12</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="4" t="s">
         <v>23</v>
+      </c>
+      <c r="E31" s="8"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>13</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E32" s="25"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>13</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E33" s="25"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>13</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="26"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>13</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E35" s="26"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>14</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E36" s="26"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>15</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="E37" s="25"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>16</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E38" s="25"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>17</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E39" s="25"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>18</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E40" s="25"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>19</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E41" s="25"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>20</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="E42" s="25"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>20</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="25"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>21</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E44" s="25"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>22</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E45" s="25"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>23</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="E46" s="25"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>23</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>23</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>24</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>25</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>25</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>25</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>25</v>
+      </c>
+      <c r="B53" s="24" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>26</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>26</v>
+      </c>
+      <c r="B55" s="24" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>26</v>
+      </c>
+      <c r="B56" s="24" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>27</v>
+      </c>
+      <c r="B57" s="24" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3468,19 +6775,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57151F82-4721-C947-9D05-F632358CBC58}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="5" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3488,294 +6795,504 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>4</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>5</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>5</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>5</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>5</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>6</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>7</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>7</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E16" s="7"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>7</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="4" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>7</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="4" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>8</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>9</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B20" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>9</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="4" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>10</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>10</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>10</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="4" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>10</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="4" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>11</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>11</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="4" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>11</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="4" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>11</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="4" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>12</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D30" s="8"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>12</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="4" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D31" s="8"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>12</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="4" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D32" s="8"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>12</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="4" t="s">
         <v>190</v>
+      </c>
+      <c r="D33" s="24"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>13</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="24"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>13</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D35" s="23"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>14</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D36" s="22"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>15</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="23"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>16</v>
+      </c>
+      <c r="D38" s="24"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>17</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D39" s="24"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>18</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" s="24"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>18</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D41" s="24"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>19</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D42" s="24"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>19</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" s="24"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>19</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D44" s="24"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>20</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" s="24"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>20</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D46" s="24"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>21</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47" s="24"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>21</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D48" s="8"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>22</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D49" s="8"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>22</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D50" s="8"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>22</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>23</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>23</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>24</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>25</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>26</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>27</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
